--- a/EW.xlsx
+++ b/EW.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B13E6C1-59CC-4338-9388-FA5AB804A2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3021EBC7-A2A2-4B2E-8B11-BBB1C85E217B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10155" yWindow="6090" windowWidth="18645" windowHeight="9315" xr2:uid="{D0C0417E-D47B-4F95-BD79-797E66097ADC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Price</t>
   </si>
@@ -56,14 +57,108 @@
   </si>
   <si>
     <t>Q122</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q120</t>
+  </si>
+  <si>
+    <t>Q220</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t>OpInc</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>TAVR</t>
+  </si>
+  <si>
+    <t>Mitral/Tricuspid</t>
+  </si>
+  <si>
+    <t>Structural</t>
+  </si>
+  <si>
+    <t>Critical Care</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -90,13 +185,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,6 +220,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A012DF5-4CF4-5D21-8916-AC0A8492CB9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="85725"/>
+          <a:ext cx="0" cy="4019550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,9 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D11D34-777E-4C00-8C4E-354517E2CCFA}">
   <dimension ref="K2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -484,4 +645,751 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAD6362-791C-41EB-B177-294AFC7B1955}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>594.29999999999995</v>
+      </c>
+      <c r="E3" s="4">
+        <v>744.6</v>
+      </c>
+      <c r="F3" s="4">
+        <v>776.2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>791.7</v>
+      </c>
+      <c r="H3" s="4">
+        <v>901.5</v>
+      </c>
+      <c r="I3" s="4">
+        <v>857.8</v>
+      </c>
+      <c r="J3" s="4">
+        <v>871.5</v>
+      </c>
+      <c r="K3" s="4">
+        <v>881.3</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>22.1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>22.3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>25.3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>27</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>160.9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>203.3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>204.2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>213</v>
+      </c>
+      <c r="H5" s="4">
+        <v>237.4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>217.4</v>
+      </c>
+      <c r="J5" s="4">
+        <v>221.3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>220.8</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>180.9</v>
+      </c>
+      <c r="F6" s="4">
+        <v>198.2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>195.6</v>
+      </c>
+      <c r="H6" s="4">
+        <v>215</v>
+      </c>
+      <c r="I6" s="4">
+        <v>212.7</v>
+      </c>
+      <c r="J6" s="4">
+        <v>211.6</v>
+      </c>
+      <c r="K6" s="4">
+        <v>212.1</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
+        <f>SUM(D3:D6)</f>
+        <v>925</v>
+      </c>
+      <c r="E7" s="7">
+        <f>SUM(E3:E6)</f>
+        <v>1140.9000000000001</v>
+      </c>
+      <c r="F7" s="7">
+        <f>SUM(F3:F6)</f>
+        <v>1191.7</v>
+      </c>
+      <c r="G7" s="7">
+        <f>SUM(G3:G6)</f>
+        <v>1216.5999999999999</v>
+      </c>
+      <c r="H7" s="7">
+        <f>SUM(H3:H6)</f>
+        <v>1376</v>
+      </c>
+      <c r="I7" s="7">
+        <f>SUM(I3:I6)</f>
+        <v>1310.2</v>
+      </c>
+      <c r="J7" s="7">
+        <f>SUM(J3:J6)</f>
+        <v>1329.6999999999998</v>
+      </c>
+      <c r="K7" s="7">
+        <f>SUM(K3:K6)</f>
+        <v>1341.1999999999998</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>238.2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>281</v>
+      </c>
+      <c r="F8" s="4">
+        <v>296.3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>293.39999999999998</v>
+      </c>
+      <c r="H8" s="4">
+        <v>334.3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>311.7</v>
+      </c>
+      <c r="J8" s="4">
+        <v>309.5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>299.3</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <f>+D7-D8</f>
+        <v>686.8</v>
+      </c>
+      <c r="E9" s="4">
+        <f>+E7-E8</f>
+        <v>859.90000000000009</v>
+      </c>
+      <c r="F9" s="4">
+        <f>+F7-F8</f>
+        <v>895.40000000000009</v>
+      </c>
+      <c r="G9" s="4">
+        <f>+G7-G8</f>
+        <v>923.19999999999993</v>
+      </c>
+      <c r="H9" s="4">
+        <f>+H7-H8</f>
+        <v>1041.7</v>
+      </c>
+      <c r="I9" s="4">
+        <f>+I7-I8</f>
+        <v>998.5</v>
+      </c>
+      <c r="J9" s="4">
+        <f>+J7-J8</f>
+        <v>1020.1999999999998</v>
+      </c>
+      <c r="K9" s="4">
+        <f>+K7-K8</f>
+        <v>1041.8999999999999</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>274.89999999999998</v>
+      </c>
+      <c r="E10" s="4">
+        <v>307.2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>338.5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>330.8</v>
+      </c>
+      <c r="H10" s="4">
+        <v>374.5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>364.4</v>
+      </c>
+      <c r="J10" s="4">
+        <v>424</v>
+      </c>
+      <c r="K10" s="4">
+        <v>370.3</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>182.1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>195.5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>195.7</v>
+      </c>
+      <c r="G11" s="4">
+        <v>207</v>
+      </c>
+      <c r="H11" s="4">
+        <v>225.3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>238</v>
+      </c>
+      <c r="J11" s="4">
+        <v>232.8</v>
+      </c>
+      <c r="K11" s="4">
+        <v>228.6</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <f>+D10+D11</f>
+        <v>457</v>
+      </c>
+      <c r="E12" s="4">
+        <f>+E10+E11</f>
+        <v>502.7</v>
+      </c>
+      <c r="F12" s="4">
+        <f>+F10+F11</f>
+        <v>534.20000000000005</v>
+      </c>
+      <c r="G12" s="4">
+        <f>+G10+G11</f>
+        <v>537.79999999999995</v>
+      </c>
+      <c r="H12" s="4">
+        <f>+H10+H11</f>
+        <v>599.79999999999995</v>
+      </c>
+      <c r="I12" s="4">
+        <f>+I10+I11</f>
+        <v>602.4</v>
+      </c>
+      <c r="J12" s="4">
+        <f>+J10+J11</f>
+        <v>656.8</v>
+      </c>
+      <c r="K12" s="4">
+        <f>+K10+K11</f>
+        <v>598.9</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <f>+D9-D12</f>
+        <v>229.79999999999995</v>
+      </c>
+      <c r="E13" s="4">
+        <f>+E9-E12</f>
+        <v>357.2000000000001</v>
+      </c>
+      <c r="F13" s="4">
+        <f>+F9-F12</f>
+        <v>361.20000000000005</v>
+      </c>
+      <c r="G13" s="4">
+        <f>+G9-G12</f>
+        <v>385.4</v>
+      </c>
+      <c r="H13" s="4">
+        <f>+H9-H12</f>
+        <v>441.90000000000009</v>
+      </c>
+      <c r="I13" s="4">
+        <f>+I9-I12</f>
+        <v>396.1</v>
+      </c>
+      <c r="J13" s="4">
+        <f>+J9-J12</f>
+        <v>363.39999999999986</v>
+      </c>
+      <c r="K13" s="4">
+        <f>+K9-K12</f>
+        <v>442.99999999999989</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <f>1.8-0.3</f>
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="4">
+        <f>0.8+5.7</f>
+        <v>6.5</v>
+      </c>
+      <c r="F14" s="4">
+        <f>0.5+4.2</f>
+        <v>4.7</v>
+      </c>
+      <c r="G14" s="4">
+        <f>0.3+5.5</f>
+        <v>5.8</v>
+      </c>
+      <c r="H14" s="4">
+        <f>-1+4.4</f>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="I14" s="4">
+        <f>-0.8+1.4</f>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="J14" s="4">
+        <f>0.5+1.4</f>
+        <v>1.9</v>
+      </c>
+      <c r="K14" s="4">
+        <f>-3.3+0.6</f>
+        <v>-2.6999999999999997</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <f>+D13+D14</f>
+        <v>231.29999999999995</v>
+      </c>
+      <c r="E15" s="4">
+        <f>+E13+E14</f>
+        <v>363.7000000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <f>+F13+F14</f>
+        <v>365.90000000000003</v>
+      </c>
+      <c r="G15" s="4">
+        <f>+G13+G14</f>
+        <v>391.2</v>
+      </c>
+      <c r="H15" s="4">
+        <f>+H13+H14</f>
+        <v>445.30000000000007</v>
+      </c>
+      <c r="I15" s="4">
+        <f>+I13+I14</f>
+        <v>396.70000000000005</v>
+      </c>
+      <c r="J15" s="4">
+        <f>+J13+J14</f>
+        <v>365.29999999999984</v>
+      </c>
+      <c r="K15" s="4">
+        <f>+K13+K14</f>
+        <v>440.2999999999999</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>39.1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>46.6</v>
+      </c>
+      <c r="G16" s="4">
+        <v>51.1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>56</v>
+      </c>
+      <c r="I16" s="4">
+        <v>50.8</v>
+      </c>
+      <c r="J16" s="4">
+        <v>41</v>
+      </c>
+      <c r="K16" s="4">
+        <v>62.5</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
+        <f>+D15-D16</f>
+        <v>231.29999999999995</v>
+      </c>
+      <c r="E17" s="4">
+        <f>+E15-E16</f>
+        <v>324.60000000000008</v>
+      </c>
+      <c r="F17" s="4">
+        <f>+F15-F16</f>
+        <v>319.3</v>
+      </c>
+      <c r="G17" s="4">
+        <f>+G15-G16</f>
+        <v>340.09999999999997</v>
+      </c>
+      <c r="H17" s="4">
+        <f>+H15-H16</f>
+        <v>389.30000000000007</v>
+      </c>
+      <c r="I17" s="4">
+        <f>+I15-I16</f>
+        <v>345.90000000000003</v>
+      </c>
+      <c r="J17" s="4">
+        <f>+J15-J16</f>
+        <v>324.29999999999984</v>
+      </c>
+      <c r="K17" s="4">
+        <f>+K15-K16</f>
+        <v>377.7999999999999</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5">
+        <f>+D17/D19</f>
+        <v>0.37288408834434944</v>
+      </c>
+      <c r="E18" s="5">
+        <f>+E17/E19</f>
+        <v>0.51442155309033288</v>
+      </c>
+      <c r="F18" s="5">
+        <f>+F17/F19</f>
+        <v>0.5052215189873418</v>
+      </c>
+      <c r="G18" s="5">
+        <f>+G17/G19</f>
+        <v>0.53872960557579597</v>
+      </c>
+      <c r="H18" s="5">
+        <f>+H17/H19</f>
+        <v>0.61803460866804272</v>
+      </c>
+      <c r="I18" s="5">
+        <f>+I17/I19</f>
+        <v>0.54757004907392748</v>
+      </c>
+      <c r="J18" s="5">
+        <f>+J17/J19</f>
+        <v>0.5131329113924048</v>
+      </c>
+      <c r="K18" s="5">
+        <f>+K17/K19</f>
+        <v>0.600254210359072</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
+        <v>620.29999999999995</v>
+      </c>
+      <c r="E19" s="4">
+        <v>631</v>
+      </c>
+      <c r="F19" s="4">
+        <v>632</v>
+      </c>
+      <c r="G19" s="4">
+        <v>631.29999999999995</v>
+      </c>
+      <c r="H19" s="4">
+        <v>629.9</v>
+      </c>
+      <c r="I19" s="4">
+        <v>631.70000000000005</v>
+      </c>
+      <c r="J19" s="4">
+        <v>632</v>
+      </c>
+      <c r="K19" s="4">
+        <v>629.4</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="8">
+        <f>+H7/D7-1</f>
+        <v>0.48756756756756747</v>
+      </c>
+      <c r="I21" s="8">
+        <f>+I7/E7-1</f>
+        <v>0.14839162065036371</v>
+      </c>
+      <c r="J21" s="8">
+        <f>+J7/F7-1</f>
+        <v>0.11580095661659784</v>
+      </c>
+      <c r="K21" s="8">
+        <f>+K7/G7-1</f>
+        <v>0.10241657077100119</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="8">
+        <f>D9/D7</f>
+        <v>0.74248648648648641</v>
+      </c>
+      <c r="E22" s="8">
+        <f>E9/E7</f>
+        <v>0.75370321675869933</v>
+      </c>
+      <c r="F22" s="8">
+        <f>F9/F7</f>
+        <v>0.75136359822102883</v>
+      </c>
+      <c r="G22" s="8">
+        <f>G9/G7</f>
+        <v>0.75883610060825246</v>
+      </c>
+      <c r="H22" s="8">
+        <f>H9/H7</f>
+        <v>0.75704941860465125</v>
+      </c>
+      <c r="I22" s="8">
+        <f>I9/I7</f>
+        <v>0.76209738971149443</v>
+      </c>
+      <c r="J22" s="8">
+        <f>J9/J7</f>
+        <v>0.767240730991953</v>
+      </c>
+      <c r="K22" s="8">
+        <f>K9/K7</f>
+        <v>0.77684163435729203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/EW.xlsx
+++ b/EW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3021EBC7-A2A2-4B2E-8B11-BBB1C85E217B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79907B77-D4BA-4AF1-8054-631915C47C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="6090" windowWidth="18645" windowHeight="9315" xr2:uid="{D0C0417E-D47B-4F95-BD79-797E66097ADC}"/>
+    <workbookView xWindow="-30510" yWindow="2220" windowWidth="22200" windowHeight="18465" activeTab="1" xr2:uid="{D0C0417E-D47B-4F95-BD79-797E66097ADC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Price</t>
   </si>
@@ -144,6 +144,51 @@
   </si>
   <si>
     <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>FCF</t>
   </si>
 </sst>
 </file>
@@ -185,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -205,6 +250,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,13 +321,63 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>40105</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>40105</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85223</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772F6FFE-74D2-980A-7D3D-FCA09CC6636A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14457947" y="60158"/>
+          <a:ext cx="0" cy="5318960"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -318,7 +415,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -424,7 +521,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -566,7 +663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -576,69 +673,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D11D34-777E-4C00-8C4E-354517E2CCFA}">
   <dimension ref="K2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>103.77</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
+        <v>76.87</v>
+      </c>
+    </row>
+    <row r="3" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>621.75173600000005</v>
+        <v>586.6</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>64519.177644720003</v>
+        <v>45091.942000000003</v>
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <f>1030.9+465+1623.7</f>
-        <v>3119.6000000000004</v>
+        <f>3140.6+757.9+277.9</f>
+        <v>4176.3999999999996</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <v>595.9</v>
+        <v>597.79999999999995</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>61995.477644720006</v>
+        <v>41513.342000000004</v>
       </c>
     </row>
   </sheetData>
@@ -649,28 +748,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAD6362-791C-41EB-B177-294AFC7B1955}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:AR28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="AL18" sqref="AL18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="2"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -707,8 +806,97 @@
       <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2">
+        <v>2016</v>
+      </c>
+      <c r="AE2">
+        <v>2017</v>
+      </c>
+      <c r="AF2">
+        <v>2018</v>
+      </c>
+      <c r="AG2">
+        <v>2019</v>
+      </c>
+      <c r="AH2">
+        <v>2020</v>
+      </c>
+      <c r="AI2">
+        <v>2021</v>
+      </c>
+      <c r="AJ2">
+        <v>2022</v>
+      </c>
+      <c r="AK2">
+        <f>+AJ2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="AL2">
+        <f>+AK2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AM2">
+        <f>+AL2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AN2">
+        <f>+AM2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="AO2">
+        <f>+AN2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="AP2">
+        <f>+AO2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="AQ2">
+        <f>+AP2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="AR2">
+        <f>+AQ2+1</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
@@ -740,8 +928,26 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF3" s="3">
+        <v>2283.8000000000002</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>2737.9</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>2857.3</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>3422.5</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>3879.8</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>4106.1000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -773,8 +979,26 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF4" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>28.2</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>41.8</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>86</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>197.6</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>352.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
@@ -806,8 +1030,26 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF5" s="3">
+        <v>761.6</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>841.7</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>761.8</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>889.1</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>932.6</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>981.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
@@ -839,49 +1081,96 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF6" s="3">
+        <v>674.5</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>740.2</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>725.4</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>834.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7">
-        <f>SUM(D3:D6)</f>
+        <f t="shared" ref="D7:K7" si="0">SUM(D3:D6)</f>
         <v>925</v>
       </c>
       <c r="E7" s="7">
-        <f>SUM(E3:E6)</f>
+        <f t="shared" si="0"/>
         <v>1140.9000000000001</v>
       </c>
       <c r="F7" s="7">
-        <f>SUM(F3:F6)</f>
+        <f t="shared" si="0"/>
         <v>1191.7</v>
       </c>
       <c r="G7" s="7">
-        <f>SUM(G3:G6)</f>
+        <f t="shared" si="0"/>
         <v>1216.5999999999999</v>
       </c>
       <c r="H7" s="7">
-        <f>SUM(H3:H6)</f>
+        <f t="shared" si="0"/>
         <v>1376</v>
       </c>
       <c r="I7" s="7">
-        <f>SUM(I3:I6)</f>
+        <f t="shared" si="0"/>
         <v>1310.2</v>
       </c>
       <c r="J7" s="7">
-        <f>SUM(J3:J6)</f>
+        <f t="shared" si="0"/>
         <v>1329.6999999999998</v>
       </c>
       <c r="K7" s="7">
-        <f>SUM(K3:K6)</f>
+        <f t="shared" si="0"/>
         <v>1341.1999999999998</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="6">
+        <v>1329.9</v>
+      </c>
+      <c r="W7" s="6">
+        <v>1412.7</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>2963.7</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>3435.3</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>3722.8</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>4348</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>4386.3</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>5232.5</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>4464</v>
+      </c>
+      <c r="AK7" s="6">
+        <f>SUM(AK3:AK5)</f>
+        <v>5010</v>
+      </c>
+      <c r="AL7" s="6">
+        <f>SUM(AL3:AL5)</f>
+        <v>5439.5000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
@@ -913,49 +1202,119 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>286.89999999999998</v>
+      </c>
+      <c r="W8" s="3">
+        <v>301.60000000000002</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>875.3</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>939.4</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>1114.4000000000001</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>1080.5999999999999</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>1248.9000000000001</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>723.7</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>978.4</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>1117.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
-        <f>+D7-D8</f>
+        <f t="shared" ref="D9:K9" si="1">+D7-D8</f>
         <v>686.8</v>
       </c>
       <c r="E9" s="4">
-        <f>+E7-E8</f>
+        <f t="shared" si="1"/>
         <v>859.90000000000009</v>
       </c>
       <c r="F9" s="4">
-        <f>+F7-F8</f>
+        <f t="shared" si="1"/>
         <v>895.40000000000009</v>
       </c>
       <c r="G9" s="4">
-        <f>+G7-G8</f>
+        <f t="shared" si="1"/>
         <v>923.19999999999993</v>
       </c>
       <c r="H9" s="4">
-        <f>+H7-H8</f>
+        <f t="shared" si="1"/>
         <v>1041.7</v>
       </c>
       <c r="I9" s="4">
-        <f>+I7-I8</f>
+        <f t="shared" si="1"/>
         <v>998.5</v>
       </c>
       <c r="J9" s="4">
-        <f>+J7-J8</f>
+        <f t="shared" si="1"/>
         <v>1020.1999999999998</v>
       </c>
       <c r="K9" s="4">
-        <f>+K7-K8</f>
+        <f t="shared" si="1"/>
         <v>1041.8999999999999</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <f>+S7-S8</f>
+        <v>1043</v>
+      </c>
+      <c r="W9" s="3">
+        <f>+W7-W8</f>
+        <v>1111.0999999999999</v>
+      </c>
+      <c r="AE9" s="3">
+        <f>+AE7-AE8</f>
+        <v>2560</v>
+      </c>
+      <c r="AF9" s="3">
+        <f>+AF7-AF8</f>
+        <v>2783.4</v>
+      </c>
+      <c r="AG9" s="3">
+        <f t="shared" ref="AG9:AI9" si="2">+AG7-AG8</f>
+        <v>3233.6</v>
+      </c>
+      <c r="AH9" s="3">
+        <f t="shared" si="2"/>
+        <v>3305.7000000000003</v>
+      </c>
+      <c r="AI9" s="3">
+        <f t="shared" si="2"/>
+        <v>3983.6</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f>+AJ7-AJ8</f>
+        <v>3740.3</v>
+      </c>
+      <c r="AK9" s="3">
+        <f>+AK7-AK8</f>
+        <v>4031.6</v>
+      </c>
+      <c r="AL9" s="3">
+        <f>+AL7-AL8</f>
+        <v>4322.0000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
@@ -987,8 +1346,38 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>428.4</v>
+      </c>
+      <c r="W10" s="3">
+        <v>465.7</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>990.8</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>1088.5</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>1242.2</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>1228.4000000000001</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>1493.7</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>1357.6</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>1582.5</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>1789.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1020,90 +1409,200 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="3">
+        <v>256.7</v>
+      </c>
+      <c r="W11" s="3">
+        <v>254.6</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>552.6</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>622.20000000000005</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>752.7</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>760.7</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>903.1</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>843.6</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>962.9</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
-        <f>+D10+D11</f>
+        <f t="shared" ref="D12:K12" si="3">+D10+D11</f>
         <v>457</v>
       </c>
       <c r="E12" s="4">
-        <f>+E10+E11</f>
+        <f t="shared" si="3"/>
         <v>502.7</v>
       </c>
       <c r="F12" s="4">
-        <f>+F10+F11</f>
+        <f t="shared" si="3"/>
         <v>534.20000000000005</v>
       </c>
       <c r="G12" s="4">
-        <f>+G10+G11</f>
+        <f t="shared" si="3"/>
         <v>537.79999999999995</v>
       </c>
       <c r="H12" s="4">
-        <f>+H10+H11</f>
+        <f t="shared" si="3"/>
         <v>599.79999999999995</v>
       </c>
       <c r="I12" s="4">
-        <f>+I10+I11</f>
+        <f t="shared" si="3"/>
         <v>602.4</v>
       </c>
       <c r="J12" s="4">
-        <f>+J10+J11</f>
+        <f t="shared" si="3"/>
         <v>656.8</v>
       </c>
       <c r="K12" s="4">
-        <f>+K10+K11</f>
+        <f t="shared" si="3"/>
         <v>598.9</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <f>+S11+S10</f>
+        <v>685.09999999999991</v>
+      </c>
+      <c r="W12" s="3">
+        <f>+W11+W10</f>
+        <v>720.3</v>
+      </c>
+      <c r="AE12" s="3">
+        <f t="shared" ref="AE12" si="4">+AE10+AE11</f>
+        <v>1543.4</v>
+      </c>
+      <c r="AF12" s="3">
+        <f t="shared" ref="AF12" si="5">+AF10+AF11</f>
+        <v>1710.7</v>
+      </c>
+      <c r="AG12" s="3">
+        <f t="shared" ref="AG12" si="6">+AG10+AG11</f>
+        <v>1994.9</v>
+      </c>
+      <c r="AH12" s="3">
+        <f t="shared" ref="AH12" si="7">+AH10+AH11</f>
+        <v>1989.1000000000001</v>
+      </c>
+      <c r="AI12" s="3">
+        <f t="shared" ref="AI12" si="8">+AI10+AI11</f>
+        <v>2396.8000000000002</v>
+      </c>
+      <c r="AJ12" s="3">
+        <f t="shared" ref="AJ12" si="9">+AJ10+AJ11</f>
+        <v>2201.1999999999998</v>
+      </c>
+      <c r="AK12" s="3">
+        <f t="shared" ref="AK12" si="10">+AK10+AK11</f>
+        <v>2545.4</v>
+      </c>
+      <c r="AL12" s="3">
+        <f>+AL10+AL11</f>
+        <v>2842.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
-        <f>+D9-D12</f>
+        <f t="shared" ref="D13:K13" si="11">+D9-D12</f>
         <v>229.79999999999995</v>
       </c>
       <c r="E13" s="4">
-        <f>+E9-E12</f>
+        <f t="shared" si="11"/>
         <v>357.2000000000001</v>
       </c>
       <c r="F13" s="4">
-        <f>+F9-F12</f>
+        <f t="shared" si="11"/>
         <v>361.20000000000005</v>
       </c>
       <c r="G13" s="4">
-        <f>+G9-G12</f>
+        <f t="shared" si="11"/>
         <v>385.4</v>
       </c>
       <c r="H13" s="4">
-        <f>+H9-H12</f>
+        <f t="shared" si="11"/>
         <v>441.90000000000009</v>
       </c>
       <c r="I13" s="4">
-        <f>+I9-I12</f>
+        <f t="shared" si="11"/>
         <v>396.1</v>
       </c>
       <c r="J13" s="4">
-        <f>+J9-J12</f>
+        <f t="shared" si="11"/>
         <v>363.39999999999986</v>
       </c>
       <c r="K13" s="4">
-        <f>+K9-K12</f>
+        <f t="shared" si="11"/>
         <v>442.99999999999989</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <f>+S9-S12</f>
+        <v>357.90000000000009</v>
+      </c>
+      <c r="W13" s="3">
+        <f>+W9-W12</f>
+        <v>390.79999999999995</v>
+      </c>
+      <c r="AE13" s="3">
+        <f t="shared" ref="AE13" si="12">+AE9-AE12</f>
+        <v>1016.5999999999999</v>
+      </c>
+      <c r="AF13" s="3">
+        <f t="shared" ref="AF13" si="13">+AF9-AF12</f>
+        <v>1072.7</v>
+      </c>
+      <c r="AG13" s="3">
+        <f t="shared" ref="AG13" si="14">+AG9-AG12</f>
+        <v>1238.6999999999998</v>
+      </c>
+      <c r="AH13" s="3">
+        <f t="shared" ref="AH13" si="15">+AH9-AH12</f>
+        <v>1316.6000000000001</v>
+      </c>
+      <c r="AI13" s="3">
+        <f t="shared" ref="AI13" si="16">+AI9-AI12</f>
+        <v>1586.7999999999997</v>
+      </c>
+      <c r="AJ13" s="3">
+        <f t="shared" ref="AJ13" si="17">+AJ9-AJ12</f>
+        <v>1539.1000000000004</v>
+      </c>
+      <c r="AK13" s="3">
+        <f t="shared" ref="AK13" si="18">+AK9-AK12</f>
+        <v>1486.1999999999998</v>
+      </c>
+      <c r="AL13" s="3">
+        <f>+AL9-AL12</f>
+        <v>1479.8000000000011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1143,49 +1642,137 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="W14" s="3">
+        <f>36.5+2.6</f>
+        <v>39.1</v>
+      </c>
+      <c r="AE14" s="3">
+        <f>-23.2+20.3</f>
+        <v>-2.8999999999999986</v>
+      </c>
+      <c r="AF14" s="3">
+        <f>29.9-32</f>
+        <v>-2.1000000000000014</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>-20.7</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>-15.8</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f>19.2-35.5</f>
+        <v>-16.3</v>
+      </c>
+      <c r="AK14" s="3">
+        <f>17.6-67.2</f>
+        <v>-49.6</v>
+      </c>
+      <c r="AL14" s="3">
+        <f>19.8-120.3</f>
+        <v>-100.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
-        <f>+D13+D14</f>
+        <f t="shared" ref="D15:K15" si="19">+D13+D14</f>
         <v>231.29999999999995</v>
       </c>
       <c r="E15" s="4">
-        <f>+E13+E14</f>
+        <f t="shared" si="19"/>
         <v>363.7000000000001</v>
       </c>
       <c r="F15" s="4">
-        <f>+F13+F14</f>
+        <f t="shared" si="19"/>
         <v>365.90000000000003</v>
       </c>
       <c r="G15" s="4">
-        <f>+G13+G14</f>
+        <f t="shared" si="19"/>
         <v>391.2</v>
       </c>
       <c r="H15" s="4">
-        <f>+H13+H14</f>
+        <f t="shared" si="19"/>
         <v>445.30000000000007</v>
       </c>
       <c r="I15" s="4">
-        <f>+I13+I14</f>
+        <f t="shared" si="19"/>
         <v>396.70000000000005</v>
       </c>
       <c r="J15" s="4">
-        <f>+J13+J14</f>
+        <f t="shared" si="19"/>
         <v>365.29999999999984</v>
       </c>
       <c r="K15" s="4">
-        <f>+K13+K14</f>
+        <f t="shared" si="19"/>
         <v>440.2999999999999</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <f t="shared" ref="S15:V15" si="20">+S13+S14</f>
+        <v>374.40000000000009</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <f>+W13+W14</f>
+        <v>429.9</v>
+      </c>
+      <c r="AE15" s="3">
+        <f t="shared" ref="AE15" si="21">+AE13+AE14</f>
+        <v>1013.6999999999999</v>
+      </c>
+      <c r="AF15" s="3">
+        <f t="shared" ref="AF15" si="22">+AF13+AF14</f>
+        <v>1070.6000000000001</v>
+      </c>
+      <c r="AG15" s="3">
+        <f t="shared" ref="AG15:AI15" si="23">+AG13+AG14</f>
+        <v>1217.9999999999998</v>
+      </c>
+      <c r="AH15" s="3">
+        <f t="shared" si="23"/>
+        <v>1300.8000000000002</v>
+      </c>
+      <c r="AI15" s="3">
+        <f t="shared" si="23"/>
+        <v>1568.3999999999996</v>
+      </c>
+      <c r="AJ15" s="3">
+        <f>+AJ13+AJ14</f>
+        <v>1522.8000000000004</v>
+      </c>
+      <c r="AK15" s="3">
+        <f>+AK13+AK14</f>
+        <v>1436.6</v>
+      </c>
+      <c r="AL15" s="3">
+        <f>+AL13+AL14</f>
+        <v>1379.3000000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
@@ -1217,86 +1804,196 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="3">
+        <v>46.3</v>
+      </c>
+      <c r="W16" s="3">
+        <v>70.3</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>451.3</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>119.6</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>93.3</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>198.9</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>195.5</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>152.4</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>152.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4">
-        <f>+D15-D16</f>
+        <f t="shared" ref="D17:K17" si="24">+D15-D16</f>
         <v>231.29999999999995</v>
       </c>
       <c r="E17" s="4">
-        <f>+E15-E16</f>
+        <f t="shared" si="24"/>
         <v>324.60000000000008</v>
       </c>
       <c r="F17" s="4">
-        <f>+F15-F16</f>
+        <f t="shared" si="24"/>
         <v>319.3</v>
       </c>
       <c r="G17" s="4">
-        <f>+G15-G16</f>
+        <f t="shared" si="24"/>
         <v>340.09999999999997</v>
       </c>
       <c r="H17" s="4">
-        <f>+H15-H16</f>
+        <f t="shared" si="24"/>
         <v>389.30000000000007</v>
       </c>
       <c r="I17" s="4">
-        <f>+I15-I16</f>
+        <f t="shared" si="24"/>
         <v>345.90000000000003</v>
       </c>
       <c r="J17" s="4">
-        <f>+J15-J16</f>
+        <f t="shared" si="24"/>
         <v>324.29999999999984</v>
       </c>
       <c r="K17" s="4">
-        <f>+K15-K16</f>
+        <f t="shared" si="24"/>
         <v>377.7999999999999</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <f>+S15-S16</f>
+        <v>328.10000000000008</v>
+      </c>
+      <c r="W17" s="3">
+        <f>+W15-W16</f>
+        <v>359.59999999999997</v>
+      </c>
+      <c r="AE17" s="3">
+        <f t="shared" ref="AE17" si="25">+AE15-AE16</f>
+        <v>562.39999999999986</v>
+      </c>
+      <c r="AF17" s="3">
+        <f t="shared" ref="AF17" si="26">+AF15-AF16</f>
+        <v>1031.4000000000001</v>
+      </c>
+      <c r="AG17" s="3">
+        <f t="shared" ref="AG17:AI17" si="27">+AG15-AG16</f>
+        <v>1098.3999999999999</v>
+      </c>
+      <c r="AH17" s="3">
+        <f t="shared" si="27"/>
+        <v>1207.5000000000002</v>
+      </c>
+      <c r="AI17" s="3">
+        <f t="shared" si="27"/>
+        <v>1369.4999999999995</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f>+AJ15-AJ16</f>
+        <v>1327.3000000000004</v>
+      </c>
+      <c r="AK17" s="3">
+        <f>+AK15-AK16</f>
+        <v>1284.1999999999998</v>
+      </c>
+      <c r="AL17" s="3">
+        <f>+AL15-AL16</f>
+        <v>1227.2000000000012</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="5">
-        <f>+D17/D19</f>
+        <f t="shared" ref="D18:K18" si="28">+D17/D19</f>
         <v>0.37288408834434944</v>
       </c>
       <c r="E18" s="5">
-        <f>+E17/E19</f>
+        <f t="shared" si="28"/>
         <v>0.51442155309033288</v>
       </c>
       <c r="F18" s="5">
-        <f>+F17/F19</f>
+        <f t="shared" si="28"/>
         <v>0.5052215189873418</v>
       </c>
       <c r="G18" s="5">
-        <f>+G17/G19</f>
+        <f t="shared" si="28"/>
         <v>0.53872960557579597</v>
       </c>
       <c r="H18" s="5">
-        <f>+H17/H19</f>
+        <f t="shared" si="28"/>
         <v>0.61803460866804272</v>
       </c>
       <c r="I18" s="5">
-        <f>+I17/I19</f>
+        <f t="shared" si="28"/>
         <v>0.54757004907392748</v>
       </c>
       <c r="J18" s="5">
-        <f>+J17/J19</f>
+        <f t="shared" si="28"/>
         <v>0.5131329113924048</v>
       </c>
       <c r="K18" s="5">
-        <f>+K17/K19</f>
+        <f t="shared" si="28"/>
         <v>0.600254210359072</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S18" s="1">
+        <f>+S17/S19</f>
+        <v>0.54312199966892905</v>
+      </c>
+      <c r="W18" s="1">
+        <f>+W17/W19</f>
+        <v>0.61177271180673698</v>
+      </c>
+      <c r="AE18" s="1">
+        <f>+AE17/AE19</f>
+        <v>2.6049096804075953</v>
+      </c>
+      <c r="AF18" s="1">
+        <f t="shared" ref="AF18:AL18" si="29">+AF17/AF19</f>
+        <v>1.6092994226868469</v>
+      </c>
+      <c r="AG18" s="1">
+        <f t="shared" si="29"/>
+        <v>1.7251452803518137</v>
+      </c>
+      <c r="AH18" s="1">
+        <f t="shared" si="29"/>
+        <v>1.9109036239911383</v>
+      </c>
+      <c r="AI18" s="1">
+        <f t="shared" si="29"/>
+        <v>2.1696768060836491</v>
+      </c>
+      <c r="AJ18" s="1">
+        <f t="shared" si="29"/>
+        <v>2.1264017942967004</v>
+      </c>
+      <c r="AK18" s="1">
+        <f t="shared" si="29"/>
+        <v>2.1073186741056773</v>
+      </c>
+      <c r="AL18" s="1">
+        <f t="shared" si="29"/>
+        <v>2.047722342733191</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
@@ -1328,8 +2025,38 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="S19" s="3">
+        <v>604.1</v>
+      </c>
+      <c r="W19" s="3">
+        <v>587.79999999999995</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>215.9</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>640.9</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>636.70000000000005</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>631.9</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>631.20000000000005</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>624.20000000000005</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>609.4</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>599.29999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
@@ -1349,42 +2076,227 @@
         <f>+K7/G7-1</f>
         <v>0.10241657077100119</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="W21" s="10">
+        <f>+W7/S7-1</f>
+        <v>6.2260320324836416E-2</v>
+      </c>
+      <c r="AE21" s="9">
+        <f t="shared" ref="AE21:AK21" si="30">+AE7/AD7-1</f>
+        <v>0.15912541755238396</v>
+      </c>
+      <c r="AF21" s="9">
+        <f t="shared" si="30"/>
+        <v>8.3689925188484171E-2</v>
+      </c>
+      <c r="AG21" s="9">
+        <f t="shared" si="30"/>
+        <v>0.16793811109917267</v>
+      </c>
+      <c r="AH21" s="9">
+        <f t="shared" si="30"/>
+        <v>8.8086476540938374E-3</v>
+      </c>
+      <c r="AI21" s="9">
+        <f t="shared" si="30"/>
+        <v>0.19291886099901956</v>
+      </c>
+      <c r="AJ21" s="9">
+        <f t="shared" si="30"/>
+        <v>-0.14687052078356422</v>
+      </c>
+      <c r="AK21" s="9">
+        <f t="shared" ref="AK21:AL21" si="31">+AK7/AJ7-1</f>
+        <v>0.12231182795698925</v>
+      </c>
+      <c r="AL21" s="9">
+        <f>+AL7/AK7-1</f>
+        <v>8.5728542914171868E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="8">
-        <f>D9/D7</f>
+        <f t="shared" ref="D22:K22" si="32">D9/D7</f>
         <v>0.74248648648648641</v>
       </c>
       <c r="E22" s="8">
-        <f>E9/E7</f>
+        <f t="shared" si="32"/>
         <v>0.75370321675869933</v>
       </c>
       <c r="F22" s="8">
-        <f>F9/F7</f>
+        <f t="shared" si="32"/>
         <v>0.75136359822102883</v>
       </c>
       <c r="G22" s="8">
-        <f>G9/G7</f>
+        <f t="shared" si="32"/>
         <v>0.75883610060825246</v>
       </c>
       <c r="H22" s="8">
-        <f>H9/H7</f>
+        <f t="shared" si="32"/>
         <v>0.75704941860465125</v>
       </c>
       <c r="I22" s="8">
-        <f>I9/I7</f>
+        <f t="shared" si="32"/>
         <v>0.76209738971149443</v>
       </c>
       <c r="J22" s="8">
-        <f>J9/J7</f>
+        <f t="shared" si="32"/>
         <v>0.767240730991953</v>
       </c>
       <c r="K22" s="8">
-        <f>K9/K7</f>
+        <f t="shared" si="32"/>
         <v>0.77684163435729203</v>
+      </c>
+      <c r="S22" s="9">
+        <f>+S9/S7</f>
+        <v>0.78426949394691325</v>
+      </c>
+      <c r="W22" s="9">
+        <f>+W9/W7</f>
+        <v>0.78650810504707291</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="S23" s="9">
+        <f>+S13/S7</f>
+        <v>0.26911797879539823</v>
+      </c>
+      <c r="W23" s="9">
+        <f>+W13/W7</f>
+        <v>0.27663339704112688</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="S26" s="3">
+        <v>-53.5</v>
+      </c>
+      <c r="W26" s="3">
+        <v>280.39999999999998</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>1182.9000000000001</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>1054.3</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>1732.1</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>1218.2</v>
+      </c>
+      <c r="AK26" s="3">
+        <v>895.8</v>
+      </c>
+      <c r="AL26" s="3">
+        <v>542.29999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="S27" s="3">
+        <v>-65.3</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-56</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>-254.4</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>-407</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>-325.8</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>-244.6</v>
+      </c>
+      <c r="AK27" s="3">
+        <v>-253</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>-252.4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="S28" s="3">
+        <f>+S26+S27</f>
+        <v>-118.8</v>
+      </c>
+      <c r="W28" s="3">
+        <f>+W26+W27</f>
+        <v>224.39999999999998</v>
+      </c>
+      <c r="AG28" s="3">
+        <f t="shared" ref="AG28" si="33">+AG26+AG27</f>
+        <v>928.50000000000011</v>
+      </c>
+      <c r="AH28" s="3">
+        <f t="shared" ref="AH28" si="34">+AH26+AH27</f>
+        <v>647.29999999999995</v>
+      </c>
+      <c r="AI28" s="3">
+        <f t="shared" ref="AI28" si="35">+AI26+AI27</f>
+        <v>1406.3</v>
+      </c>
+      <c r="AJ28" s="3">
+        <f t="shared" ref="AJ28:AK28" si="36">+AJ26+AJ27</f>
+        <v>973.6</v>
+      </c>
+      <c r="AK28" s="3">
+        <f t="shared" si="36"/>
+        <v>642.79999999999995</v>
+      </c>
+      <c r="AL28" s="3">
+        <f>+AL26+AL27</f>
+        <v>289.89999999999998</v>
       </c>
     </row>
   </sheetData>
